--- a/Excel Output/Hotels Sort Verification Details.xlsx
+++ b/Excel Output/Hotels Sort Verification Details.xlsx
@@ -34,10 +34,10 @@
 Breakfast included
 Only 1 left at this price
 Special Discount
-12% off
-₹ 6,200
-₹ 5,334
-Total price: ₹ 31,513
+10% off
+₹ 6,160
+₹ 5,487
+Total price: ₹ 32,429
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -52,8 +52,8 @@
 Entire unit 59㎡
 2 bedrooms
 2 beds
-₹ 5,248
-Total price: ₹ 30,934
+₹ 5,237
+Total price: ₹ 30,869
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -68,9 +68,9 @@
 Family Room
 x4
 Free Cancellation
-Last booked 17 hrs ago
-₹ 20,021
-Total price: ₹ 128,132
+Last booked 19 hrs ago
+₹ 19,978
+Total price: ₹ 127,861
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -85,8 +85,8 @@
 2 bedrooms
 2 beds
 Only 1 left at this price
-₹ 5,067
-Total price: ₹ 29,388
+₹ 5,056
+Total price: ₹ 29,326
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -97,8 +97,8 @@
 Near Yaya CentreShow on Map
 Standard Quadruple Room
 x4
-₹ 4,793
-Total price: ₹ 29,442
+₹ 4,783
+Total price: ₹ 29,380
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -114,9 +114,9 @@
 x4
 Free Cancellation
 Breakfast included
-Last booked 13 hrs ago
-₹ 203,753
-Total price: ₹ 1,286,296
+Last booked 15 hrs ago
+₹ 203,323
+Total price: ₹ 1,283,575
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -131,10 +131,10 @@
 2 bedrooms
 3 beds
 Special Discount
-₹ 112 off
-₹ 4,449
-₹ 4,337
-Total price: ₹ 25,598
+₹ 111 off
+₹ 4,439
+₹ 4,328
+Total price: ₹ 25,544
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -152,13 +152,13 @@
 2 bedrooms
 2 beds
 Free Cancellation
-Earn ₹ 964.09 in Trip Coins
-Last booked 3 hrs ago
+Earn ₹ 961.74 in Trip Coins
+Last booked 5 hrs ago
 Limited Time Offer
 15% off
-₹ 19,666
-₹ 16,333
-Total price: ₹ 96,364
+₹ 19,625
+₹ 16,298
+Total price: ₹ 96,160
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -173,8 +173,8 @@
 Entire unit
 3 bedrooms
 4 beds
-₹ 4,467
-Total price: ₹ 26,309
+₹ 4,458
+Total price: ₹ 26,254
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -191,9 +191,9 @@
 Entire unit 108㎡
 2 bedrooms
 2 beds
-Last booked 33 mins ago on our site
-₹ 23,276
-Total price: ₹ 145,472
+Last booked 2 hrs ago
+₹ 23,226
+Total price: ₹ 145,164
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -210,8 +210,8 @@
 2 beds
 Free Cancellation
 Only 5 left at this price
-₹ 7,717
-Total price: ₹ 44,760
+₹ 7,701
+Total price: ₹ 44,666
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -229,13 +229,13 @@
 3 beds
 Free Cancellation
 Breakfast included
-Earn ₹ 2,511.53 in Trip Coins
+Earn ₹ 2,505.41 in Trip Coins
 Only 1 left at this price
 Special Discount
 20% off
-₹ 36,738
-₹ 28,369
-Total price: ₹ 167,377
+₹ 36,660
+₹ 28,309
+Total price: ₹ 167,023
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -252,9 +252,9 @@
 Family Room
 x4
 Free Cancellation
-Last booked 17 hrs ago
-₹ 20,021
-Total price: ₹ 128,132
+Last booked 19 hrs ago
+₹ 19,978
+Total price: ₹ 127,861
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -266,8 +266,8 @@
 Two Bedroom Apartment
 x4
 Breakfast included
-₹ 17,079
-Total price: ₹ 105,038
+₹ 17,043
+Total price: ₹ 104,816
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -286,13 +286,13 @@
 2 beds
 Free Cancellation
 Breakfast included
-Earn ₹ 1,324.95 in Trip Coins
+Earn ₹ 1,322.62 in Trip Coins
 Only 5 left at this price
 Special Discount
 8% off
-₹ 16,421
-₹ 14,966
-Total price: ₹ 88,296
+₹ 16,393
+₹ 14,942
+Total price: ₹ 88,151
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -308,9 +308,9 @@
 Two-Bedroom Residence
 x4
 Free Cancellation
-Last booked 20 hrs ago
-₹ 18,715
-Total price: ₹ 116,970
+Last booked 22 hrs ago
+₹ 18,676
+Total price: ₹ 116,723
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -327,13 +327,13 @@
 Entire apartment 95㎡
 2 bedrooms
 3 beds
-Earn ₹ 520.93 in Trip Coins
+Earn ₹ 546.73 in Trip Coins
 Only 3 left at this price
 Special Discount
-15% off
-₹ 7,204
-₹ 5,980
-Total price: ₹ 34,685
+11% off
+₹ 7,139
+₹ 6,281
+Total price: ₹ 36,432
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -347,8 +347,8 @@
 Executive Two-Bedroom Apartment
 x4
 Only 1 left at this price
-₹ 9,579
-Total price: ₹ 56,516
+₹ 9,559
+Total price: ₹ 56,396
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -363,8 +363,8 @@
 Fairview Suite
 x4
 Free Cancellation
-₹ 54,743
-Total price: ₹ 350,357
+₹ 54,628
+Total price: ₹ 349,616
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -379,8 +379,8 @@
 2 bedrooms
 2 beds
 Free Cancellation
-₹ 6,957
-Total price: ₹ 41,012
+₹ 6,943
+Total price: ₹ 40,926
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -397,8 +397,8 @@
 1 bedroom
 4 beds
 Breakfast included
-₹ 36,959
-Total price: ₹ 218,057
+₹ 36,881
+Total price: ₹ 217,596
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -411,8 +411,8 @@
 Near Giraffe manorShow on Map
 Executive Suite
 x4
-₹ 29,311
-Total price: ₹ 187,632
+₹ 29,249
+Total price: ₹ 187,235
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -425,8 +425,8 @@
 2
 Classic Superior King Room
 Free Cancellation
-₹ 11,357
-Total price: ₹ 141,967
+₹ 11,333
+Total price: ₹ 141,667
 2 rooms × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -514,7 +514,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>9</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>11</v>

--- a/Excel Output/Hotels Sort Verification Details.xlsx
+++ b/Excel Output/Hotels Sort Verification Details.xlsx
@@ -152,8 +152,8 @@
 2 bedrooms
 2 beds
 Free Cancellation
-Earn ₹ 961.74 in Trip Coins
-Last booked 5 hrs ago
+Earn ₹ 962.30 in Trip Coins
+Last booked 6 hrs ago
 Limited Time Offer
 15% off
 ₹ 19,625
@@ -286,7 +286,7 @@
 2 beds
 Free Cancellation
 Breakfast included
-Earn ₹ 1,322.62 in Trip Coins
+Earn ₹ 1,323.05 in Trip Coins
 Only 5 left at this price
 Special Discount
 8% off
@@ -327,7 +327,7 @@
 Entire apartment 95㎡
 2 bedrooms
 3 beds
-Earn ₹ 546.73 in Trip Coins
+Earn ₹ 546.53 in Trip Coins
 Only 3 left at this price
 Special Discount
 11% off
@@ -514,7 +514,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>9</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>11</v>

--- a/Excel Output/Hotels Sort Verification Details.xlsx
+++ b/Excel Output/Hotels Sort Verification Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>After Searched</t>
   </si>
@@ -25,20 +25,22 @@
   <si>
     <t>YEZA INN
 Opened in 2025
-8.5/10
-Very good2 reviews
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Very good
+2 reviews
+8.5
 2-bed Room
-x4
+2 queen beds
+4 adults
 Free Cancellation
 Breakfast included
 Only 1 left at this price
+₹ 6,189
+₹ 5,324
+Total price: ₹ 31,458
+1 room × 5 nights incl. taxes &amp; fees
 Special Discount
-10% off
-₹ 6,160
-₹ 5,487
-Total price: ₹ 32,429
-1 room × 5 nights incl. taxes &amp; fees
+12% off
 Check Availability
 Sign in for member prices</t>
   </si>
@@ -52,41 +54,43 @@
 Entire unit 59㎡
 2 bedrooms
 2 beds
-₹ 5,237
-Total price: ₹ 30,869
+₹ 5,239
+Total price: ₹ 30,881
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
-9.7/10
-Amazing94 reviews
-"Great location"
-"Great service"
-Near Village MarketShow on Map
+Near Village MarketMap
+Great locationGreat service
 No. 13 of 4-Star Select Hotels in Nairobi
+Amazing
+94 reviews
+9.7
 Family Room
-x4
-Free Cancellation
-Last booked 19 hrs ago
-₹ 19,978
-Total price: ₹ 127,861
+2 single beds
+4 adults
+Free Cancellation
+Last booked 20 hrs ago
+₹ 19,986
+Total price: ₹ 127,909
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Javilla Eagles Safari Guest house
-7.7/10
-Good34 reviews
-8.4 km from centreShow on Map
+8.4 km from centreMap
+Good
+34 reviews
+7.7
 Comfort Apartment, 2 Bedrooms, Non Smoking, Ground Floor
-x4
 Entire unit 55㎡
 2 bedrooms
 2 beds
+4 adults
 Only 1 left at this price
-₹ 5,056
-Total price: ₹ 29,326
+₹ 5,058
+Total price: ₹ 29,337
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -97,26 +101,43 @@
 Near Yaya CentreShow on Map
 Standard Quadruple Room
 x4
-₹ 4,783
-Total price: ₹ 29,380
+₹ 4,785
+Total price: ₹ 29,391
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi
-9.8/10
-Outstanding46 reviews
-"Great stay!"
-"Great service"
-Near National Museum of KenyaShow on Map
+Near National Museum of KenyaMap
+Great stay!Great service
 No. 1 of Luxury Hotels in Nairobi
+Outstanding
+46 reviews
+9.8
 3 Bedroom Apartment, Bedroom 1: 1 King, Bedroom 2: 1 King, Bedroom 3: 2 Doubles
-x4
+1 king bed
+4 adults
 Free Cancellation
 Breakfast included
-Last booked 15 hrs ago
-₹ 203,323
-Total price: ₹ 1,283,575
+Last booked 17 hrs ago
+₹ 203,399
+Total price: ₹ 1,284,055
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Woodmere Serviced Apartment
+Near Yaya CentreMap
+Very good
+70 reviews
+8.6
+Standard Two-Bedroom Apartment
+Entire unit 59㎡
+2 bedrooms
+2 beds
+4 adults
+₹ 5,239
+Total price: ₹ 30,881
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -132,36 +153,49 @@
 3 beds
 Special Discount
 ₹ 111 off
-₹ 4,439
-₹ 4,328
-Total price: ₹ 25,544
+₹ 4,441
+₹ 4,330
+Total price: ₹ 25,553
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Yaya Hotel &amp; Apartments
-9.4/10
-Amazing49 reviews
-"Clean and tidy"
-"Great service"
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Clean and tidyGreat service
 No. 19 of 4-Star Select Hotels in Nairobi
+Amazing
+49 reviews
+9.4
 Two-Bedroom Luxury Apartment
-x4
 Entire unit 125㎡
 2 bedrooms
 2 beds
-Free Cancellation
-Earn ₹ 962.30 in Trip Coins
-Last booked 6 hrs ago
+4 adults
+Free Cancellation
+Last booked 7 hrs ago
+₹ 19,632
+₹ 16,305
+Total price: ₹ 96,196
+1 room × 5 nights incl. taxes &amp; fees
 Limited Time Offer
 15% off
-₹ 19,625
-₹ 16,298
-Total price: ₹ 96,160
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Kenya Comfort Suites
+Near Yaya CentreMap
+Good
+11 reviews
+7.9
+Standard Quadruple Room
+4 single beds
+4 adults
+₹ 4,785
+Total price: ₹ 29,391
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
   </si>
   <si>
     <t>The King Post
@@ -173,28 +207,46 @@
 Entire unit
 3 bedrooms
 4 beds
-₹ 4,458
-Total price: ₹ 26,254
+₹ 4,459
+Total price: ₹ 26,263
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Pan Pacific Serviced Suites Nairobi
-9.4/10
-Amazing48 reviews
-"Great rooms"
-"Great location"
-Near National Museum of KenyaShow on Map
+Near National Museum of KenyaMap
+Great roomsGreat location
 No. 13 of Premium Hotels in Nairobi
+Amazing
+48 reviews
+9.4
 Two Bedroom Suite King &amp; Twin
-x4
 Entire unit 108㎡
 2 bedrooms
 2 beds
-Last booked 2 hrs ago
-₹ 23,226
-Total price: ₹ 145,164
-1 room × 5 nights incl. taxes &amp; fees
+4 adults
+Last booked 3 hrs ago
+₹ 23,235
+Total price: ₹ 145,219
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Eldon Apartments &amp; Suites
+Near Wilson AirportMap
+5 reviews
+7.1
+Standard Two-Bedroom Apartment
+Entire apartment 18㎡
+2 bedrooms
+3 beds
+4 adults
+₹ 4,441
+₹ 4,330
+Total price: ₹ 25,553
+1 room × 5 nights incl. taxes &amp; fees
+Special Discount
+₹ 111 off
 Check Availability</t>
   </si>
   <si>
@@ -210,35 +262,54 @@
 2 beds
 Free Cancellation
 Only 5 left at this price
-₹ 7,701
-Total price: ₹ 44,666
+₹ 7,704
+Total price: ₹ 44,682
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
     <t>Palacina the Residence &amp; the Suites
-9.2/10
-Great48 reviews
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
 No. 7 of Premium Hotels in Nairobi
+Great
+48 reviews
+9.2
 2 Bedroom Executive Penthouse
-x4
 Entire unit 168㎡
 2 bedrooms
 3 beds
+4 adults
 Free Cancellation
 Breakfast included
-Earn ₹ 2,505.41 in Trip Coins
 Only 1 left at this price
+₹ 36,674
+₹ 28,320
+Total price: ₹ 167,085
+1 room × 5 nights incl. taxes &amp; fees
 Special Discount
 20% off
-₹ 36,660
-₹ 28,309
-Total price: ₹ 167,023
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
+Ad
+Near Village MarketMap
+Great locationGreat service
+No. 13 of 4-Star Select Hotels in Nairobi
+Amazing
+94 reviews
+9.7
+Family Room
+2 single beds
+4 adults
+Free Cancellation
+Last booked 20 hrs ago
+₹ 19,986
+Total price: ₹ 127,909
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
   </si>
   <si>
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
@@ -252,22 +323,40 @@
 Family Room
 x4
 Free Cancellation
-Last booked 19 hrs ago
-₹ 19,978
-Total price: ₹ 127,861
+Last booked 20 hrs ago
+₹ 19,986
+Total price: ₹ 127,909
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Executive Residency by Best Western Nairobi
-9.2/10
-Great46 reviews
-Near The Sarit Expo CentreShow on Map
+Near The Sarit Expo CentreMap
+Great
+46 reviews
+9.2
 Two Bedroom Apartment
-x4
+1 queen bed and 2 single beds
+4 adults
 Breakfast included
-₹ 17,043
-Total price: ₹ 104,816
+₹ 18,186
+Total price: ₹ 111,845
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>The King Post
+Near The Sarit Expo CentreMap
+Good
+17 reviews
+7.7
+Three-Bedroom Apartment
+Entire unit
+3 bedrooms
+4 beds
+6 adults
+₹ 4,459
+Total price: ₹ 26,263
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -286,16 +375,106 @@
 2 beds
 Free Cancellation
 Breakfast included
-Earn ₹ 1,323.05 in Trip Coins
+Earn ₹ 1,322.44 in Trip Coins
 Only 5 left at this price
 Special Discount
 8% off
-₹ 16,393
-₹ 14,942
-Total price: ₹ 88,151
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
+₹ 16,395
+₹ 14,943
+Total price: ₹ 88,157
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Mövenpick Hotel &amp; Residences Nairobi
+Near The Sarit Expo CentreMap
+Great serviceGreat location
+No. 1 of Gourmet Hotels in Nairobi
+Great
+97 reviews
+9.0
+Two-Bedroom Residence
+1 king bed and 2 single beds
+4 adults
+Free Cancellation
+Last booked 23 hrs ago
+₹ 18,844
+Total price: ₹ 117,772
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Kester International Apartment Hotel
+Opened in 2025
+Near Yaya CentreMap
+Great serviceGreat rooms
+Outstanding
+28 reviews
+9.8
+Boutique 2-bedroom And 1-living Room Suite
+Entire apartment 95㎡
+2 bedrooms
+3 beds
+4 adults
+Only 3 left at this price
+₹ 7,192
+₹ 5,970
+Total price: ₹ 34,624
+1 room × 5 nights incl. taxes &amp; fees
+Special Discount
+15% off
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Lavington Residences By Trianum
+Opened in 2025
+9.6/10
+Amazing7 reviews
+Near Yaya CentreShow on Map
+Executive Two-Bedroom Apartment
+x4
+Only 1 left at this price
+₹ 9,562
+Total price: ₹ 56,417
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Fairview Hotel Nairobi, Vignette Collection by IHG
+Renovated in 2025
+Near Giraffe manorMap
+No. 17 of 4-Star Select Hotels in Nairobi
+Great
+49 reviews
+9.0
+Fairview Suite
+1 queen bed
+4 adults
+Free Cancellation
+₹ 54,648
+Total price: ₹ 349,747
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Maskan Suites
+Near Yaya CentreMap
+Very good
+34 reviews
+8.9
+Superior Apartment, 2 Bedrooms, Private Bathroom, City View
+Entire apartment
+2 bedrooms
+2 beds
+4 adults
+Free Cancellation
+₹ 6,945
+Total price: ₹ 40,941
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
   </si>
   <si>
     <t>Mövenpick Hotel &amp; Residences Nairobi
@@ -308,127 +487,164 @@
 Two-Bedroom Residence
 x4
 Free Cancellation
-Last booked 22 hrs ago
-₹ 18,676
-Total price: ₹ 116,723
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Kester International Apartment Hotel
-Opened in 2025
-9.8/10
-Outstanding28 reviews
-"Great service"
-"Great rooms"
-Near Yaya CentreShow on Map
-Boutique 2-bedroom And 1-living Room Suite
-x4
-Entire apartment 95㎡
-2 bedrooms
-3 beds
-Earn ₹ 546.53 in Trip Coins
-Only 3 left at this price
-Special Discount
-11% off
-₹ 7,139
-₹ 6,281
-Total price: ₹ 36,432
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Lavington Residences By Trianum
-Opened in 2025
-9.6/10
-Amazing7 reviews
-Near Yaya CentreShow on Map
-Executive Two-Bedroom Apartment
-x4
-Only 1 left at this price
-₹ 9,559
-Total price: ₹ 56,396
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Fairview Hotel Nairobi, Vignette Collection by IHG
-Renovated in 2025
-9.0/10
-Great49 reviews
-Near Giraffe manorShow on Map
-No. 17 of 4-Star Select Hotels in Nairobi
-Fairview Suite
-x4
-Free Cancellation
-₹ 54,628
-Total price: ₹ 349,616
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Maskan Suites
-8.9/10
-Very good34 reviews
-Near Yaya CentreShow on Map
-Superior Apartment, 2 Bedrooms, Private Bathroom, City View
-x4
-Entire apartment
-2 bedrooms
-2 beds
-Free Cancellation
-₹ 6,943
-Total price: ₹ 40,926
+Last booked 23 hrs ago
+₹ 18,844
+Total price: ₹ 117,772
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Windsor Golf Hotel &amp; Country Club
 New to Trip.com
-8.8/10
-Very good64 reviews
-9.7 km from centreShow on Map
+9.7 km from centreMap
 No. 6 of 4-Star Select Hotels in Nairobi
+Very good
+64 reviews
+8.8
 Two- Bedroom Cottage
-x4
 Entire unit 65㎡
 1 bedroom
 4 beds
+4 adults
 Breakfast included
-₹ 36,881
-Total price: ₹ 217,596
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
+₹ 36,895
+Total price: ₹ 217,678
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Arcadia Hotel
+Renovated in 2025
+Near Yaya CentreMap
+Very good
+13 reviews
+8.8
+Two-Bedroom Suite
+Entire unit 110㎡
+2 bedrooms
+2 beds
+4 adults
+Free Cancellation
+Only 5 left at this price
+₹ 7,704
+Total price: ₹ 44,682
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Yaya Hotel &amp; Apartments
+9.4/10
+Amazing49 reviews
+"Clean and tidy"
+"Great service"
+Near Yaya CentreShow on Map
+No. 19 of 4-Star Select Hotels in Nairobi
+Two-Bedroom Luxury Apartment
+x4
+Entire unit 125㎡
+2 bedrooms
+2 beds
+Free Cancellation
+Earn ₹ 962.26 in Trip Coins
+Last booked 7 hrs ago
+Limited Time Offer
+15% off
+₹ 19,632
+₹ 16,305
+Total price: ₹ 96,196
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
   </si>
   <si>
     <t>Four Points by Sheraton Nairobi Hurlingham
-8.8/10
-Very good60 reviews
-"Great service"
-"Delicious breakfast"
-Near Giraffe manorShow on Map
+Near Giraffe manorMap
+Great serviceDelicious breakfast
+Very good
+60 reviews
+8.8
 Executive Suite
-x4
-₹ 29,249
-Total price: ₹ 187,235
+1 king bed
+4 adults
+₹ 29,260
+Total price: ₹ 187,305
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Mercure Nairobi Upper Hill
 Ad
+Near Giraffe manorMap
+Very good
+60 reviews
+8.9
+2
+×
+Classic Superior King Room
+1 king bed
+2 adults
+Free Cancellation
+₹ 11,338
+Total price: ₹ 141,720
+2 rooms × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Pullman Nairobi Upper Hill
+Renovated in 2025
+Ad
+9.4/10
+Amazing60 reviews
+Near Giraffe manorShow on Map
+No. 3 of 4-Star Select Hotels in Nairobi
+2
+Deluxe Room With Two Double Beds
+Free Cancellation
+Earn ₹ 1,697.05 in Trip Coins
+Last booked 1 hr ago
+₹ 13,576
+Total price: ₹ 169,703
+2 rooms × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Mövenpick Hotel &amp; Residences Nairobi
+Near The Sarit Expo CentreMap
+Great serviceGreat location
+No. 1 of Gourmet Hotels in Nairobi
+Great
+97 reviews
+9.0
+Two-Bedroom Residence
+1 king bed and 2 single beds
+4 adults
+Free Cancellation
+Last booked 23 hrs ago
+₹ 18,683
+Total price: ₹ 116,766
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Somerset Westview Nairobi
 8.9/10
-Very good60 reviews
-Near Giraffe manorShow on Map
-2
-Classic Superior King Room
-Free Cancellation
-₹ 11,333
-Total price: ₹ 141,667
-2 rooms × 5 nights incl. taxes &amp; fees
-Check Availability</t>
+Very good55 reviews
+"Clean and tidy"
+"Great stay!"
+Near Yaya CentreShow on Map
+No. 20 of 4-Star Select Hotels in Nairobi
+Two-Bedroom Suite
+x4
+Earn ₹ 1,075.10 in Trip Coins
+Special Discount
+21% off
+₹ 22,662
+₹ 17,120
+Total price: ₹ 107,424
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
   </si>
 </sst>
 </file>
@@ -473,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -517,95 +733,103 @@
         <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>25</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Output/Hotels Sort Verification Details.xlsx
+++ b/Excel Output/Hotels Sort Verification Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>After Searched</t>
   </si>
@@ -34,10 +34,10 @@
 Breakfast included
 Only 1 left at this price
 Special Discount
-12% off
-₹ 6,189
-₹ 5,324
-Total price: ₹ 31,457
+10% off
+₹ 6,163
+₹ 5,489
+Total price: ₹ 32,440
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -45,7 +45,7 @@
   <si>
     <t>Woodmere Serviced Apartment
 8.6/10
-Very good70 reviews
+Very good68 reviews
 Near Yaya CentreShow on Map
 Standard Two-Bedroom Apartment
 x4
@@ -68,7 +68,6 @@
 Family Room
 x4
 Free Cancellation
-Last booked 21 hrs ago
 ₹ 19,986
 Total price: ₹ 127,909
 1 room × 5 nights incl. taxes &amp; fees
@@ -114,7 +113,6 @@
 x4
 Free Cancellation
 Breakfast included
-Last booked 18 hrs ago
 ₹ 203,399
 Total price: ₹ 1,284,055
 1 room × 5 nights incl. taxes &amp; fees
@@ -150,7 +148,7 @@
 2 beds
 Free Cancellation
 Earn ₹ 962.26 in Trip Coins
-Last booked 8 hrs ago
+Last booked 14 hrs ago
 Limited Time Offer
 15% off
 ₹ 19,632
@@ -191,27 +189,58 @@
 Entire unit 108㎡
 2 bedrooms
 2 beds
-Last booked 5 hrs ago
+Last booked 3 hrs ago
 ₹ 23,235
 Total price: ₹ 145,219
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
-    <t>Arcadia Hotel
-Renovated in 2025
-8.8/10
-Very good13 reviews
-Near Yaya CentreShow on Map
-Two-Bedroom Suite
-x4
-Entire unit 110㎡
+    <t>Kester International Apartment Hotel
+Opened in 2025
+9.8/10
+Outstanding28 reviews
+"Great service"
+"Great rooms"
+Near Yaya CentreShow on Map
+Boutique 2-bedroom And 1-living Room Suite
+x4
+Entire apartment 95㎡
+2 bedrooms
+3 beds
+Earn ₹ 547.03 in Trip Coins
+Only 3 left at this price
+Special Discount
+11% off
+₹ 7,141
+₹ 6,284
+Total price: ₹ 36,444
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Lux Suites Riara One Residency Angama
+Opened in 2025
+9.9/10
+Outstanding17 reviews
+"Clean and tidy"
+"Great location"
+Near Yaya CentreShow on Map
+Family Room
+x4
+Entire apartment 98㎡
 2 bedrooms
 2 beds
 Free Cancellation
+Breakfast included
+Earn ₹ 1,323.34 in Trip Coins
 Only 5 left at this price
-₹ 7,704
-Total price: ₹ 44,682
+Special Discount
+8% off
+₹ 16,398
+₹ 14,946
+Total price: ₹ 88,178
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -252,7 +281,6 @@
 Family Room
 x4
 Free Cancellation
-Last booked 21 hrs ago
 ₹ 19,986
 Total price: ₹ 127,909
 1 room × 5 nights incl. taxes &amp; fees
@@ -272,27 +300,20 @@
 Check Availability</t>
   </si>
   <si>
-    <t>Lux Suites Riara One Residency Angama
-Opened in 2025
-9.9/10
-Outstanding17 reviews
-"Clean and tidy"
-"Great location"
-Near Yaya CentreShow on Map
-Family Room
-x4
-Entire apartment 98㎡
+    <t>Arcadia Hotel
+Renovated in 2025
+8.8/10
+Very good13 reviews
+Near Yaya CentreShow on Map
+Two-Bedroom Suite
+x4
+Entire unit 110㎡
 2 bedrooms
 2 beds
 Free Cancellation
-Breakfast included
-Earn ₹ 1,323.34 in Trip Coins
 Only 5 left at this price
-Special Discount
-8% off
-₹ 16,398
-₹ 14,946
-Total price: ₹ 88,178
+₹ 7,704
+Total price: ₹ 44,682
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -308,34 +329,10 @@
 Two-Bedroom Residence
 x4
 Free Cancellation
-₹ 18,844
-Total price: ₹ 117,772
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Kester International Apartment Hotel
-Opened in 2025
-9.8/10
-Outstanding28 reviews
-"Great service"
-"Great rooms"
-Near Yaya CentreShow on Map
-Boutique 2-bedroom And 1-living Room Suite
-x4
-Entire apartment 95㎡
-2 bedrooms
-3 beds
-Earn ₹ 519.94 in Trip Coins
-Only 3 left at this price
-Special Discount
-15% off
-₹ 7,192
-₹ 5,970
-Total price: ₹ 34,623
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
+₹ 18,849
+Total price: ₹ 117,805
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
   </si>
   <si>
     <t>Lavington Residences By Trianum
@@ -377,7 +374,7 @@
 Entire apartment
 2 bedrooms
 2 beds
-Free Cancellation
+Member deal
 ₹ 6,945
 Total price: ₹ 40,941
 1 room × 5 nights incl. taxes &amp; fees
@@ -413,20 +410,6 @@
 ₹ 29,260
 Total price: ₹ 187,305
 1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Mercure Nairobi Upper Hill
-Ad
-8.9/10
-Very good60 reviews
-Near Giraffe manorShow on Map
-2
-Classic Superior King Room
-Free Cancellation
-₹ 11,338
-Total price: ₹ 141,720
-2 rooms × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
@@ -439,9 +422,8 @@
 No. 3 of 4-Star Select Hotels in Nairobi
 2
 Deluxe Room With Two Double Beds
-Free Cancellation
 Earn ₹ 1,697.05 in Trip Coins
-Last booked 3 hrs ago
+Last booked 2 hrs ago
 ₹ 13,576
 Total price: ₹ 169,703
 2 rooms × 5 nights incl. taxes &amp; fees
@@ -553,24 +535,24 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -578,15 +560,15 @@
         <v>11</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>20</v>
@@ -600,7 +582,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>23</v>
@@ -608,10 +590,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>24</v>
@@ -622,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">

--- a/Excel Output/Hotels Sort Verification Details.xlsx
+++ b/Excel Output/Hotels Sort Verification Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>After Searched</t>
   </si>
@@ -34,10 +34,10 @@
 Breakfast included
 Only 1 left at this price
 Special Discount
-11% off
-₹ 6,201
-₹ 5,443
-Total price: ₹ 32,178
+12% off
+₹ 6,222
+₹ 5,364
+Total price: ₹ 31,699
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -52,15 +52,15 @@
 Entire unit 59㎡
 2 bedrooms
 2 beds
-₹ 5,196
-Total price: ₹ 30,631
+₹ 5,202
+Total price: ₹ 30,667
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
 9.7/10
-Amazing95 reviews
+Amazing96 reviews
 "Great location"
 "Great service"
 Near Village MarketShow on Map
@@ -68,8 +68,8 @@
 Family Room
 x4
 Free Cancellation
-₹ 21,887
-Total price: ₹ 140,077
+₹ 20,452
+Total price: ₹ 130,890
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -81,15 +81,15 @@
 Standard Quadruple Room
 x4
 Last booked 10 hrs ago
-₹ 4,806
-Total price: ₹ 29,521
+₹ 4,812
+Total price: ₹ 29,555
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi
 9.8/10
-Outstanding46 reviews
+Outstanding47 reviews
 "Great stay!"
 "Great service"
 Near National Museum of KenyaShow on Map
@@ -98,8 +98,9 @@
 x4
 Free Cancellation
 Breakfast included
-₹ 204,438
-Total price: ₹ 1,290,616
+Last booked 8 hrs ago
+₹ 204,675
+Total price: ₹ 1,292,111
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -113,8 +114,8 @@
 Entire unit
 3 bedrooms
 4 beds
-₹ 4,456
-Total price: ₹ 26,266
+₹ 4,461
+Total price: ₹ 26,296
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -122,8 +123,8 @@
     <t>Yaya Hotel &amp; Apartments
 9.4/10
 Amazing49 reviews
-"Great service"
 "Great amenities"
+"Great stay!"
 Near Yaya CentreShow on Map
 No. 19 of 4-Star Select Hotels in Nairobi
 Two-Bedroom Luxury Apartment
@@ -132,41 +133,57 @@
 2 bedrooms
 2 beds
 Free Cancellation
-Earn ₹ 952.85 in Trip Coins
+Earn ₹ 953.98 in Trip Coins
 Limited Time Offer
 16% off
-₹ 19,760
-₹ 16,148
-Total price: ₹ 95,273
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Lux Suites Riara One Residency Angama
+₹ 19,783
+₹ 16,167
+Total price: ₹ 95,383
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Kester International Apartment Hotel
 Opened in 2025
-9.9/10
-Outstanding18 reviews
-"Clean and tidy"
-"Great location"
-Near Yaya CentreShow on Map
-Family Room
-x4
-Entire apartment 98㎡
-2 bedrooms
-2 beds
-Free Cancellation
-Breakfast included
-Earn ₹ 1,329.10 in Trip Coins
-Only 5 left at this price
+9.8/10
+Outstanding28 reviews
+"Great service"
+"Great rooms"
+Near Yaya CentreShow on Map
+Boutique 2-bedroom And 1-living Room Suite
+x4
+Entire apartment 95㎡
+2 bedrooms
+3 beds
+Earn ₹ 528.27 in Trip Coins
+Only 2 left at this price
 Special Discount
-8% off
-₹ 16,478
-₹ 15,018
-Total price: ₹ 88,605
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
+14% off
+₹ 7,222
+₹ 6,066
+Total price: ₹ 35,182
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Eldon Apartments &amp; Suites
+7.1/10
+5 reviews
+Near Wilson AirportShow on Map
+Standard Two-Bedroom Apartment
+x4
+Entire apartment 18㎡
+2 bedrooms
+3 beds
+Special Discount
+₹ 142 off
+₹ 5,676
+₹ 5,534
+Total price: ₹ 32,663
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
   </si>
   <si>
     <t>Pan Pacific Serviced Suites Nairobi
@@ -181,38 +198,34 @@
 Entire unit 108㎡
 2 bedrooms
 2 beds
-₹ 25,606
-Total price: ₹ 160,036
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Fedha Residences by Trianum
-9.1/10
-Great47 reviews
-"Great service"
+Last booked 6 hrs ago
+₹ 25,635
+Total price: ₹ 160,221
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Lux Suites Riara One Residency Angama
+Opened in 2025
+9.9/10
+Outstanding18 reviews
+"Clean and tidy"
 "Great location"
 Near Yaya CentreShow on Map
-Executive Two Bedrooms Apartment
-x4
-Only 4 left at this price
-₹ 8,836
-Total price: ₹ 52,132
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Lavington Residences By Trianum
-Opened in 2025
-9.6/10
-Amazing7 reviews
-Near Yaya CentreShow on Map
-Executive Two-Bedroom Apartment
-x4
-Only 1 left at this price
-₹ 9,604
-Total price: ₹ 56,666
+Family Room
+x4
+Entire apartment 98㎡
+2 bedrooms
+2 beds
+Free Cancellation
+Breakfast included
+Earn ₹ 1,333.39 in Trip Coins
+Only 5 left at this price
+Special Discount
+8% off
+₹ 16,530
+₹ 15,066
+Total price: ₹ 88,882
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -221,7 +234,7 @@
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
 Ad
 9.7/10
-Amazing95 reviews
+Amazing96 reviews
 "Great location"
 "Great service"
 Near Village MarketShow on Map
@@ -229,8 +242,8 @@
 Family Room
 x4
 Free Cancellation
-₹ 21,887
-Total price: ₹ 140,077
+₹ 20,452
+Total price: ₹ 130,890
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -242,52 +255,45 @@
 Two Bedroom Apartment
 x4
 Breakfast included
-₹ 18,124
-Total price: ₹ 111,462
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Kester International Apartment Hotel
-Opened in 2025
-9.8/10
-Outstanding28 reviews
-"Great service"
-"Great rooms"
-Near Yaya CentreShow on Map
-Boutique 2-bedroom And 1-living Room Suite
-x4
-Entire apartment 95㎡
-2 bedrooms
-3 beds
-Earn ₹ 549.41 in Trip Coins
-Only 2 left at this price
-Special Discount
-11% off
-₹ 7,173
-₹ 6,311
-Total price: ₹ 36,605
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Eldon Apartments &amp; Suites
-7.1/10
-5 reviews
-Near Wilson AirportShow on Map
-Standard Two-Bedroom Apartment
-x4
-Entire apartment 18㎡
-2 bedrooms
-3 beds
-Special Discount
-₹ 142 off
-₹ 5,670
-₹ 5,528
-Total price: ₹ 32,625
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
+₹ 18,145
+Total price: ₹ 111,591
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Fedha Residences by Trianum
+9.1/10
+Great47 reviews
+"Great service"
+"Great location"
+Near Yaya CentreShow on Map
+Executive Two Bedrooms Apartment
+x4
+Only 1 left at this price
+₹ 8,846
+Total price: ₹ 52,193
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Arcadia Hotel
+Renovated in 2025
+8.8/10
+Very good12 reviews
+Near Yaya CentreShow on Map
+Two-Bedroom Suite
+x4
+Entire unit 110㎡
+2 bedrooms
+2 beds
+Free Cancellation
+Only 5 left at this price
+₹ 7,747
+Total price: ₹ 44,931
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
   </si>
   <si>
     <t>Mövenpick Hotel &amp; Residences Nairobi
@@ -300,10 +306,41 @@
 Two-Bedroom Residence
 x4
 Free Cancellation
-₹ 22,295
-Total price: ₹ 139,345
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
+Last booked 6 hrs ago
+₹ 22,360
+Total price: ₹ 139,748
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Maskan Suites
+8.9/10
+Very good34 reviews
+Near Yaya CentreShow on Map
+Superior Apartment, 2 Bedrooms, Private Bathroom, City View
+x4
+Entire apartment
+2 bedrooms
+2 beds
+₹ 6,984
+Total price: ₹ 41,169
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Lavington Residences By Trianum
+Opened in 2025
+9.6/10
+Amazing7 reviews
+Near Yaya CentreShow on Map
+Executive Two-Bedroom Apartment
+x4
+Only 1 left at this price
+₹ 9,615
+Total price: ₹ 56,731
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
   </si>
   <si>
     <t>Windsor Golf Hotel &amp; Country Club
@@ -319,10 +356,10 @@
 4 beds
 Breakfast included
 Member deal
-7% off
-₹ 25,449
-₹ 22,979
-Total price: ₹ 158,201
+16% off
+₹ 29,271
+₹ 23,135
+Total price: ₹ 159,034
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -335,63 +372,45 @@
 Near Giraffe manorShow on Map
 Executive Suite
 x4
-Last booked 1 hr ago
-₹ 29,671
-Total price: ₹ 189,941
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Maskan Suites
-8.9/10
-Very good34 reviews
-Near Yaya CentreShow on Map
-Superior Apartment, 2 Bedrooms, Private Bathroom, City View
-x4
-Entire apartment
-2 bedrooms
-2 beds
-Free Cancellation
-₹ 6,976
-Total price: ₹ 41,121
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Arcadia Hotel
-Renovated in 2025
-8.8/10
-Very good12 reviews
-Near Yaya CentreShow on Map
-Two-Bedroom Suite
-x4
-Entire unit 110㎡
-2 bedrooms
-2 beds
-Free Cancellation
-Only 5 left at this price
-₹ 7,738
-Total price: ₹ 44,879
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
+Last booked 14 hrs ago
+₹ 29,706
+Total price: ₹ 190,161
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Mövenpick Hotel &amp; Residences Nairobi
+9.0/10
+Great96 reviews
+"Great service"
+"Great location"
+Near The Sarit Expo CentreShow on Map
+No. 2 of Gourmet Hotels in Nairobi
+Two-Bedroom Residence
+x4
+Free Cancellation
+Last booked 6 hrs ago
+₹ 22,321
+Total price: ₹ 139,506
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
   </si>
   <si>
     <t>Somerset Westview Nairobi
 8.9/10
 Very good56 reviews
+"Clean and tidy"
 "Great stay!"
-"Great rooms"
 Near Yaya CentreShow on Map
 No. 20 of 4-Star Select Hotels in Nairobi
 Two-Bedroom Suite
 x4
-Earn ₹ 1,165.91 in Trip Coins
+Earn ₹ 1,167.28 in Trip Coins
 Special Discount
 15% off
-₹ 22,680
-₹ 18,568
-Total price: ₹ 116,514
+₹ 22,707
+₹ 18,590
+Total price: ₹ 116,649
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -406,51 +425,11 @@
 No. 3 of 4-Star Select Hotels in Nairobi
 2
 Deluxe Room With Two Double Beds
-Free Cancellation
-Earn ₹ 1,705.34 in Trip Coins
-₹ 13,636
-Total price: ₹ 170,450
+Earn ₹ 1,707.36 in Trip Coins
+₹ 13,652
+Total price: ₹ 170,648
 2 rooms × 5 nights incl. taxes &amp; fees
 Check Availability</t>
-  </si>
-  <si>
-    <t>DoubleTree by Hilton Nairobi Hurlingham
-Ad
-9.0/10
-Great68 reviews
-"Delicious breakfast"
-"Great service"
-Near Yaya CentreShow on Map
-2
-King Room
-Free Cancellation
-₹ 10,989
-Total price: ₹ 137,367
-2 rooms × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>The Concord Hotel &amp; Suites
-8.2/10
-Very good99 reviews
-"Great service"
-"Great rooms"
-Near The Sarit Expo CentreShow on Map
-Penthouse
-x4
-Entire unit
-2 bedrooms
-3 beds
-Breakfast included
-Only 1 left at this price
-Special Discount
-9% off
-₹ 37,452
-₹ 33,708
-Total price: ₹ 198,879
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
   </si>
   <si>
     <t>Emara Ole-Sereni
@@ -463,9 +442,8 @@
 Entire unit 52㎡
 2 bedrooms
 1 bed
-Free Cancellation
-₹ 60,415
-Total price: ₹ 356,449
+₹ 60,485
+Total price: ₹ 356,862
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -564,18 +542,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>13</v>
@@ -608,40 +586,40 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>25</v>
@@ -649,10 +627,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
